--- a/Soluciones/resultados.xlsx
+++ b/Soluciones/resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juancbello/Desktop/Soluciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FA2CF7-AB4E-0649-94B8-DDFE838C9CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345ABE52-4B7C-2B4E-B6B5-1A8E976EB04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28780" windowHeight="15780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="10520" windowHeight="15780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
@@ -37,43 +37,6 @@
     <sheet name="Sabado OP" sheetId="21" r:id="rId22"/>
     <sheet name="Domingo OP" sheetId="22" r:id="rId23"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Graficas!$A$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Graficas!$A$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Graficas!$B$2:$H$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Graficas!$B$3:$H$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Graficas!$B$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Graficas!$B$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Graficas!$A$3</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Graficas!$A$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Graficas!$A$5</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Graficas!$BT$2:$BZ$2</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Graficas!$BT$3:$BZ$3</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Graficas!$BT$4:$BZ$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Graficas!$A$5</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Graficas!$BT$5:$BZ$5</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Graficas!$A$3</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Graficas!$A$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Graficas!$A$5</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Graficas!$BT$2:$BZ$2</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Graficas!$BT$3:$BZ$3</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Graficas!$BT$4:$BZ$4</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Graficas!$BT$5:$BZ$5</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Graficas!$A$3</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Graficas!$A$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Graficas!$B$2:$H$2</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Graficas!$A$5</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Graficas!$BT$2:$BZ$2</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Graficas!$BT$3:$BZ$3</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Graficas!$BT$4:$BZ$4</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Graficas!$BT$5:$BZ$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Graficas!$B$3:$H$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Graficas!$B$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Graficas!$B$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Graficas!$A$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Graficas!$A$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Graficas!$A$5</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -198,7 +161,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -540,6 +503,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,7 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -48397,8 +48360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D9AA9B-41BF-6E4B-9A91-F705A127D79C}">
   <dimension ref="A1:CN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="73" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="CQ17" sqref="CQ17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CB1" zoomScale="73" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="AK35" sqref="AK35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48408,125 +48371,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="35" t="str">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36" t="str">
         <f>Resultados!E1</f>
         <v>Cantidad de solicitudes</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="35" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="35" t="s">
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="35" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="35" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="35" t="str">
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="36" t="str">
         <f>Resultados!J1</f>
         <v>Tiempo de demora</v>
       </c>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="35" t="s">
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="35" t="s">
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="36"/>
-      <c r="BK1" s="36"/>
-      <c r="BL1" s="37"/>
-      <c r="BM1" s="35" t="s">
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="38"/>
+      <c r="BM1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="BN1" s="36"/>
-      <c r="BO1" s="36"/>
-      <c r="BP1" s="36"/>
-      <c r="BQ1" s="36"/>
-      <c r="BR1" s="36"/>
-      <c r="BS1" s="37"/>
-      <c r="BT1" s="35" t="s">
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
+      <c r="BQ1" s="37"/>
+      <c r="BR1" s="37"/>
+      <c r="BS1" s="38"/>
+      <c r="BT1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="BU1" s="36"/>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BX1" s="36"/>
-      <c r="BY1" s="36"/>
-      <c r="BZ1" s="37"/>
-      <c r="CA1" s="35" t="s">
+      <c r="BU1" s="37"/>
+      <c r="BV1" s="37"/>
+      <c r="BW1" s="37"/>
+      <c r="BX1" s="37"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="38"/>
+      <c r="CA1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="CB1" s="36"/>
-      <c r="CC1" s="36"/>
-      <c r="CD1" s="36"/>
-      <c r="CE1" s="36"/>
-      <c r="CF1" s="36"/>
-      <c r="CG1" s="37"/>
-      <c r="CH1" s="35" t="s">
+      <c r="CB1" s="37"/>
+      <c r="CC1" s="37"/>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="38"/>
+      <c r="CH1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="CI1" s="36"/>
-      <c r="CJ1" s="36"/>
-      <c r="CK1" s="36"/>
-      <c r="CL1" s="36"/>
-      <c r="CM1" s="36"/>
-      <c r="CN1" s="37"/>
+      <c r="CI1" s="37"/>
+      <c r="CJ1" s="37"/>
+      <c r="CK1" s="37"/>
+      <c r="CL1" s="37"/>
+      <c r="CM1" s="37"/>
+      <c r="CN1" s="38"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
@@ -49935,16 +49898,10 @@
       <c r="BN37" s="28"/>
     </row>
     <row r="39" spans="38:86" x14ac:dyDescent="0.2">
-      <c r="BR39" s="38"/>
+      <c r="BR39" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="W1:AC1"/>
-    <mergeCell ref="AD1:AJ1"/>
     <mergeCell ref="CH1:CN1"/>
     <mergeCell ref="AR1:AX1"/>
     <mergeCell ref="AY1:BE1"/>
@@ -49952,6 +49909,12 @@
     <mergeCell ref="BM1:BS1"/>
     <mergeCell ref="BT1:BZ1"/>
     <mergeCell ref="CA1:CG1"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="AD1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
